--- a/RSV_association_study/results/manuscripts_tables.xlsx
+++ b/RSV_association_study/results/manuscripts_tables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27917"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/li11/myGit/SEMproject/RSV_association_study/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\project2018\RSV_association_study\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="50">
   <si>
     <t>Reference allele (G) frequency</t>
   </si>
@@ -91,13 +91,106 @@
   </si>
   <si>
     <t>[0.1693910 , 0.7437384]</t>
+  </si>
+  <si>
+    <t>GG, GC, CC</t>
+  </si>
+  <si>
+    <t>Genotype</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>Additive effect</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>GG vs. GC/CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant dominate effect </t>
+  </si>
+  <si>
+    <t>GG/GC vs/ CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variant recessive effect </t>
+  </si>
+  <si>
+    <t>pvalue</t>
+  </si>
+  <si>
+    <t>Odds ratio</t>
+  </si>
+  <si>
+    <t>95% C.I. of odds ratio</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>[0.3966, 0.8874]</t>
+  </si>
+  <si>
+    <t>[0.1694 , 0.7437]</t>
+  </si>
+  <si>
+    <t>Covariate</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>[0.4019, 0.9015]</t>
+  </si>
+  <si>
+    <t>[0.1745, 0.7720]</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>[0.3966, 0.8891]</t>
+  </si>
+  <si>
+    <t>[0.1711, 0.7542]</t>
+  </si>
+  <si>
+    <t>Breastfeeding</t>
+  </si>
+  <si>
+    <t>SocEcoStat</t>
+  </si>
+  <si>
+    <t>[0.3916, 0.8791]</t>
+  </si>
+  <si>
+    <t>[0.1662, 0.7328]</t>
+  </si>
+  <si>
+    <t>[0.3950, 0.8846]</t>
+  </si>
+  <si>
+    <t>[0.1709, 0.7515]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +226,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -166,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -243,30 +342,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,6 +373,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,139 +721,726 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="8">
         <v>0.73134330000000003</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>0.26865670000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>0.73192020000000002</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="10">
         <v>0.26807979999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9">
+      <c r="G3" s="3">
         <v>1.6167600000000001E-3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="H3" s="3">
         <v>1.103053E-2</v>
       </c>
-      <c r="G3" s="9">
+      <c r="I3" s="3">
         <v>6.0621700000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1.6167600000000001E-3</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1.103053E-2</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="14">
+        <v>6.0621700000000004E-3</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="15">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="15">
+        <v>1.38E-2</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0.60189999999999999</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="15">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="15">
+        <v>1.14E-2</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0.59379999999999999</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="15">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0.35930000000000001</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="15">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="15">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="J34" s="15">
+        <v>0.5867</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="15">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="15">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="15">
+        <v>1.06E-2</v>
+      </c>
+      <c r="J41" s="15">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="15">
+        <v>6.6E-3</v>
+      </c>
+      <c r="J42" s="15">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
